--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2198998.492887089</v>
+        <v>2196500.760963399</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>37.16417278109587</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>224.4238814121425</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
         <v>118.9581905386867</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842211</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063289</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2609479597986</v>
+        <v>19.60150546874673</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>81.78451489990556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861689</v>
+        <v>12.92889148616886</v>
       </c>
       <c r="H5" t="n">
         <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386867</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
-        <v>240.1964841266426</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>3.398827592186369</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.93465110712424</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>177.0417847849604</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>106.7295394578061</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>179.6683693173736</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>130.2353589709476</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>98.72860659578211</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.799772605714368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.05856366754105</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>97.98413062223922</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1901,13 +1901,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>95.81917536083697</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>130.1208074460227</v>
+        <v>39.52129633182675</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016493</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460218</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673005</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146491</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1519.530634217204</v>
+        <v>952.8099583210299</v>
       </c>
       <c r="C2" t="n">
-        <v>1150.568117276793</v>
+        <v>915.2703898552764</v>
       </c>
       <c r="D2" t="n">
-        <v>792.3024186700422</v>
+        <v>915.2703898552764</v>
       </c>
       <c r="E2" t="n">
-        <v>406.514166071798</v>
+        <v>915.2703898552764</v>
       </c>
       <c r="F2" t="n">
-        <v>399.5686653225945</v>
+        <v>908.324889106073</v>
       </c>
       <c r="G2" t="n">
-        <v>172.8778760174001</v>
+        <v>491.2249987160033</v>
       </c>
       <c r="H2" t="n">
         <v>172.8778760174001</v>
@@ -4331,13 +4331,13 @@
         <v>72.94508437002453</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745311</v>
+        <v>474.9025859199842</v>
       </c>
       <c r="L2" t="n">
-        <v>693.1884131896807</v>
+        <v>1025.843037648564</v>
       </c>
       <c r="M2" t="n">
-        <v>1322.822366070958</v>
+        <v>1655.476990529841</v>
       </c>
       <c r="N2" t="n">
         <v>1948.012457026072</v>
@@ -4352,28 +4352,28 @@
         <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.90437972421</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.90437972421</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2635.90437972421</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>2635.90437972421</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>2283.135724454096</v>
+        <v>1326.27571658211</v>
       </c>
       <c r="X2" t="n">
-        <v>1909.669966193016</v>
+        <v>952.8099583210299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1519.530634217204</v>
+        <v>952.8099583210299</v>
       </c>
     </row>
     <row r="3">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.651698356963</v>
+        <v>207.021021782959</v>
       </c>
       <c r="C4" t="n">
-        <v>195.651698356963</v>
+        <v>207.021021782959</v>
       </c>
       <c r="D4" t="n">
-        <v>195.651698356963</v>
+        <v>207.021021782959</v>
       </c>
       <c r="E4" t="n">
-        <v>195.651698356963</v>
+        <v>207.021021782959</v>
       </c>
       <c r="F4" t="n">
-        <v>195.651698356963</v>
+        <v>207.021021782959</v>
       </c>
       <c r="G4" t="n">
-        <v>195.651698356963</v>
+        <v>207.021021782959</v>
       </c>
       <c r="H4" t="n">
-        <v>195.651698356963</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>70.97668332239621</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
         <v>52.7180875944842</v>
@@ -4510,28 +4510,28 @@
         <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442186</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442186</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="T4" t="n">
-        <v>822.0992803605308</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="U4" t="n">
-        <v>532.9468076738656</v>
+        <v>689.6950608868632</v>
       </c>
       <c r="V4" t="n">
-        <v>278.2623194679787</v>
+        <v>435.0105726809763</v>
       </c>
       <c r="W4" t="n">
-        <v>278.2623194679787</v>
+        <v>435.0105726809763</v>
       </c>
       <c r="X4" t="n">
-        <v>278.2623194679787</v>
+        <v>207.021021782959</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.651698356963</v>
+        <v>207.021021782959</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1319.31079389568</v>
+        <v>1539.164552637355</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.31079389568</v>
+        <v>1539.164552637355</v>
       </c>
       <c r="D5" t="n">
-        <v>1319.31079389568</v>
+        <v>1180.898854030605</v>
       </c>
       <c r="E5" t="n">
-        <v>1319.31079389568</v>
+        <v>795.1106014323605</v>
       </c>
       <c r="F5" t="n">
-        <v>908.324889106073</v>
+        <v>384.124696642753</v>
       </c>
       <c r="G5" t="n">
-        <v>491.2249987160033</v>
+        <v>371.0652102930874</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174001</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002453</v>
+        <v>240.3507333903776</v>
       </c>
       <c r="K5" t="n">
-        <v>474.9025859199842</v>
+        <v>459.9334571908384</v>
       </c>
       <c r="L5" t="n">
-        <v>1025.843037648564</v>
+        <v>597.3893065144728</v>
       </c>
       <c r="M5" t="n">
-        <v>1655.476990529841</v>
+        <v>1227.02325939575</v>
       </c>
       <c r="N5" t="n">
-        <v>2280.667081484956</v>
+        <v>1419.239895183</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780568</v>
+        <v>1964.401531937496</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992997</v>
+        <v>2392.009993239693</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.143761215017</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.90437972421</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.90437972421</v>
+        <v>2263.799931140764</v>
       </c>
       <c r="U5" t="n">
-        <v>2393.281668485177</v>
+        <v>2263.799931140764</v>
       </c>
       <c r="V5" t="n">
-        <v>2062.218781141607</v>
+        <v>1932.737043797194</v>
       </c>
       <c r="W5" t="n">
-        <v>1709.450125871492</v>
+        <v>1932.737043797194</v>
       </c>
       <c r="X5" t="n">
-        <v>1709.450125871492</v>
+        <v>1929.303884613167</v>
       </c>
       <c r="Y5" t="n">
-        <v>1319.31079389568</v>
+        <v>1539.164552637355</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.431881212098</v>
+        <v>966.4318812120983</v>
       </c>
       <c r="C6" t="n">
-        <v>791.978851930971</v>
+        <v>791.9788519309714</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697198</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642643</v>
+        <v>483.8069872642645</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911493</v>
+        <v>337.2724292911495</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640337</v>
+        <v>199.8245529640339</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815731</v>
+        <v>98.84600463815751</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448403</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448403</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K6" t="n">
-        <v>119.300560189548</v>
+        <v>119.3005601895482</v>
       </c>
       <c r="L6" t="n">
-        <v>622.283394386659</v>
+        <v>622.2833943866592</v>
       </c>
       <c r="M6" t="n">
-        <v>1261.219859367377</v>
+        <v>990.9111639625156</v>
       </c>
       <c r="N6" t="n">
-        <v>1913.606193349119</v>
+        <v>1643.297497944258</v>
       </c>
       <c r="O6" t="n">
-        <v>2461.531432554793</v>
+        <v>2191.222737149932</v>
       </c>
       <c r="P6" t="n">
         <v>2613.977979877466</v>
@@ -4680,7 +4680,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>687.273133950246</v>
+        <v>215.9000311554303</v>
       </c>
       <c r="C7" t="n">
-        <v>518.3369510223391</v>
+        <v>215.9000311554303</v>
       </c>
       <c r="D7" t="n">
-        <v>368.2203116100034</v>
+        <v>65.78339174309457</v>
       </c>
       <c r="E7" t="n">
-        <v>368.2203116100034</v>
+        <v>65.78339174309457</v>
       </c>
       <c r="F7" t="n">
-        <v>221.330364112093</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K7" t="n">
         <v>153.1475318919734</v>
@@ -4747,28 +4747,28 @@
         <v>1047.75168442186</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.75168442186</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.75168442186</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.75168442186</v>
+        <v>691.3770985048473</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.75168442186</v>
+        <v>691.3770985048473</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.75168442186</v>
+        <v>436.6926102989604</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.75168442186</v>
+        <v>436.6926102989604</v>
       </c>
       <c r="X7" t="n">
-        <v>868.9215987804857</v>
+        <v>436.6926102989604</v>
       </c>
       <c r="Y7" t="n">
-        <v>868.9215987804857</v>
+        <v>215.9000311554303</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1293.535049826208</v>
+        <v>1340.498291912144</v>
       </c>
       <c r="C8" t="n">
-        <v>924.5725328857964</v>
+        <v>1340.498291912144</v>
       </c>
       <c r="D8" t="n">
-        <v>566.3068342790459</v>
+        <v>982.2325933053937</v>
       </c>
       <c r="E8" t="n">
-        <v>180.5185816808017</v>
+        <v>596.4443407071494</v>
       </c>
       <c r="F8" t="n">
-        <v>173.5730809315982</v>
+        <v>589.498839957946</v>
       </c>
       <c r="G8" t="n">
-        <v>160.5257032084297</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="H8" t="n">
-        <v>52.7180875944842</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J8" t="n">
-        <v>73.9523375878675</v>
+        <v>241.3579866082206</v>
       </c>
       <c r="K8" t="n">
-        <v>156.5154921624599</v>
+        <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>683.9992506428529</v>
+        <v>1187.429107161108</v>
       </c>
       <c r="M8" t="n">
-        <v>1315.717061626165</v>
+        <v>1374.128519986516</v>
       </c>
       <c r="N8" t="n">
-        <v>1943.024729686011</v>
+        <v>2001.436188046362</v>
       </c>
       <c r="O8" t="n">
-        <v>2490.185934453089</v>
+        <v>2171.605213363322</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.920259702615</v>
+        <v>2600.920259702616</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.689342221038</v>
+        <v>2479.689342221039</v>
       </c>
       <c r="T8" t="n">
         <v>2264.88948048875</v>
       </c>
       <c r="U8" t="n">
-        <v>2011.197777233901</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="V8" t="n">
-        <v>1680.13488989033</v>
+        <v>2264.88948048875</v>
       </c>
       <c r="W8" t="n">
-        <v>1680.13488989033</v>
+        <v>1912.120825218636</v>
       </c>
       <c r="X8" t="n">
-        <v>1680.13488989033</v>
+        <v>1730.637623887956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1680.13488989033</v>
+        <v>1340.498291912144</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593631</v>
+        <v>199.5389224593632</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416771</v>
+        <v>98.62294460416774</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513799</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571897</v>
+        <v>382.1464919002941</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>519.3760899159881</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.289170088821</v>
+        <v>1159.921439383093</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.945911741486</v>
+        <v>1812.307773364835</v>
       </c>
       <c r="O9" t="n">
         <v>1980.381920494209</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>650.2117250800591</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="C10" t="n">
-        <v>481.2755421521522</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D10" t="n">
-        <v>331.1589027398164</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E10" t="n">
-        <v>331.1589027398164</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F10" t="n">
-        <v>184.2689552419061</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4984,28 +4984,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>822.4489425249668</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>596.8197458373318</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>596.8197458373318</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>342.1352576314449</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.652769053829</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.8601899102988</v>
+        <v>52.71808759448422</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400694</v>
+        <v>695.5020655703073</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121625</v>
+        <v>695.5020655703073</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>545.3854261579716</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>397.4723325755784</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703091</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380872</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978446</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>274.8772357154514</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611857</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768874</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>414.4022433768874</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>414.4022433768874</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400708</v>
+        <v>363.7369613277309</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400708</v>
+        <v>215.8238677453378</v>
       </c>
       <c r="F28" t="n">
-        <v>366.9636532421604</v>
+        <v>215.8238677453378</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038335</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6926,37 +6926,37 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,25 +7093,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580259</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>405.7918549409245</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>101.3321522312934</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>139.9284653494488</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>44.78540908205468</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>192.6659774824627</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792256</v>
+        <v>459.9808678792258</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>45.42368237240066</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>392.0758612516564</v>
+        <v>407.3488400925138</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>458.3127195243208</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>8.648317636983251</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.282327221323107e-14</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-7.366831715029562e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>146.815700412498</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.36248435539019</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>47.43691740069202</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>69.70496293143188</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>35.40333084624612</v>
+        <v>126.0028419604421</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260599</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194186</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>895361.596299251</v>
+        <v>895361.5962992511</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>895013.4178352868</v>
+        <v>895013.4178352869</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>832814.7603673672</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673672</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>832814.7603673672</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.284775254</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="O2" t="n">
-        <v>585181.2847752547</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>2553.741448474159</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329923</v>
+        <v>775624.2722329922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>172417.1413821403</v>
@@ -26424,40 +26424,40 @@
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695036</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695031</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695058</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695058</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695056</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695059</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.480531695078</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695026</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695034</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695025</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695042</v>
-      </c>
       <c r="M4" t="n">
-        <v>6287.480531695042</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
+        <v>6287.480531695083</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="O4" t="n">
-        <v>6287.480531695031</v>
-      </c>
       <c r="P4" t="n">
-        <v>6287.480531695023</v>
+        <v>6287.480531695059</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>86566.12012538442</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917783</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-465593.1106369166</v>
+        <v>-465593.1106369169</v>
       </c>
       <c r="C6" t="n">
         <v>324252.8224853248</v>
       </c>
       <c r="D6" t="n">
-        <v>322137.8306779511</v>
+        <v>322137.8306779513</v>
       </c>
       <c r="E6" t="n">
-        <v>-297852.9978133403</v>
+        <v>-297887.7357387759</v>
       </c>
       <c r="F6" t="n">
-        <v>477771.2744196521</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="G6" t="n">
-        <v>477771.2744196524</v>
+        <v>477736.5364942161</v>
       </c>
       <c r="H6" t="n">
-        <v>477771.2744196524</v>
+        <v>477736.5364942169</v>
       </c>
       <c r="I6" t="n">
-        <v>477771.2744196524</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="J6" t="n">
-        <v>305354.1330375116</v>
+        <v>305319.3951120764</v>
       </c>
       <c r="K6" t="n">
-        <v>477771.2744196524</v>
+        <v>477736.5364942166</v>
       </c>
       <c r="L6" t="n">
-        <v>477771.2744196524</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="M6" t="n">
-        <v>349747.1569532656</v>
+        <v>349712.4190278299</v>
       </c>
       <c r="N6" t="n">
-        <v>477771.2744196522</v>
+        <v>477736.5364942169</v>
       </c>
       <c r="O6" t="n">
-        <v>477771.2744196525</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="P6" t="n">
-        <v>477771.2744196521</v>
+        <v>477736.5364942166</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>658.9760949310526</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310523</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>328.1087189899117</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>188.5050100740264</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241020306</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011782</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27552,13 +27552,13 @@
         <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>266.6594424910518</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.8001384521892</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241020306</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011782</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.95926109887662</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>366.3322730862827</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>132.486396915807</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
         <v>152.75990484659</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>48.66787060407677</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>208.3113446174095</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>190.0627313610954</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>36.68541758362281</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>106.6372753043365</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,16 +28093,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-3.595084893893873e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28621,13 +28621,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-3.385985881593205e-12</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30180,13 +30180,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,16 +34699,16 @@
         <v>20.43130987428316</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212782</v>
+        <v>406.0176783332926</v>
       </c>
       <c r="L2" t="n">
-        <v>544.6361471870198</v>
+        <v>556.5055067965458</v>
       </c>
       <c r="M2" t="n">
         <v>635.9938917992698</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789034</v>
+        <v>295.4903701982127</v>
       </c>
       <c r="O2" t="n">
         <v>550.6683199540363</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428316</v>
+        <v>189.5279250463569</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332926</v>
+        <v>221.8007311115766</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965458</v>
+        <v>138.8442922460953</v>
       </c>
       <c r="M5" t="n">
         <v>635.9938917992698</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789034</v>
+        <v>194.1582179669193</v>
       </c>
       <c r="O5" t="n">
-        <v>214.6535477733457</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176052</v>
+        <v>431.9277386890878</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607346</v>
+        <v>246.3579661459781</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673921</v>
+        <v>372.3512823998549</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="O6" t="n">
         <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>153.9864114370432</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q6" t="n">
         <v>22.14787863307501</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>532.8118772529223</v>
+        <v>548.0848560937796</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>658.9760949310528</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>169.7718657872465</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35413,7 +35413,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35425,7 +35425,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899038</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096341</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
